--- a/Zošit1.xlsx
+++ b/Zošit1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Tento_zošit" hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miro\Desktop\gitSkuska4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>OrderDetailID</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>10249 a a a a</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <dimension ref="A1:AI519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +820,9 @@
       <c r="D7" s="6">
         <v>10</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="G7" s="16"/>
       <c r="K7" s="26"/>
       <c r="L7" s="27"/>

--- a/Zošit1.xlsx
+++ b/Zošit1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>OrderDetailID</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
   <dimension ref="A1:AI519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +866,9 @@
       <c r="D8" s="6">
         <v>35</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="16"/>
       <c r="K8" s="26"/>
       <c r="L8" s="27"/>

--- a/Zošit1.xlsx
+++ b/Zošit1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>OrderDetailID</t>
   </si>
@@ -594,7 +594,7 @@
   <dimension ref="A1:AI519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1016,9 @@
       <c r="D13" s="13">
         <v>40</v>
       </c>
+      <c r="F13" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="K13" s="22"/>
       <c r="L13"/>
     </row>
